--- a/outputs-HGR-r202/test-g__Eubacterium_R_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-g__Eubacterium_R_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t>Row</t>
   </si>
@@ -284,6 +284,9 @@
   </si>
   <si>
     <t>even_MAG-GUT71140.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT71562.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT74428.fa</t>
@@ -469,7 +472,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X113"/>
+  <dimension ref="A1:X114"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="true"/>
@@ -503,73 +506,73 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2">
@@ -7163,73 +7166,73 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>1.3780311340125525e-05</v>
+        <v>0.0062315853066851204</v>
       </c>
       <c r="C91">
-        <v>0.00059309588507452666</v>
+        <v>6.5328650835850771e-05</v>
       </c>
       <c r="D91">
-        <v>0.00047253923206426387</v>
+        <v>0.0041108466982441583</v>
       </c>
       <c r="E91">
-        <v>6.0762333301673118e-12</v>
+        <v>0.00053641534070225086</v>
       </c>
       <c r="F91">
-        <v>0.67113358149133495</v>
+        <v>0.082596470911391745</v>
       </c>
       <c r="G91">
-        <v>0.00040440909839599578</v>
+        <v>0.0061531548044329422</v>
       </c>
       <c r="H91">
-        <v>0.0050287015601544922</v>
+        <v>0.06671740434696051</v>
       </c>
       <c r="I91">
-        <v>5.0343736572728811e-05</v>
+        <v>0.00056996678778527255</v>
       </c>
       <c r="J91">
-        <v>0.082324578001304743</v>
+        <v>0.066857062542018897</v>
       </c>
       <c r="K91">
-        <v>0.0038282467392154068</v>
+        <v>0.027572077826164339</v>
       </c>
       <c r="L91">
-        <v>0.040771514614742231</v>
+        <v>0.095540614937975471</v>
       </c>
       <c r="M91">
-        <v>0.038222355965496405</v>
+        <v>0.016911654089229816</v>
       </c>
       <c r="N91">
-        <v>2.7028233214004321e-05</v>
+        <v>0.017220879101899858</v>
       </c>
       <c r="O91">
-        <v>0.084755843615497692</v>
+        <v>0.32531945626001163</v>
       </c>
       <c r="P91">
-        <v>0.021101698092797858</v>
+        <v>0.13261943733368459</v>
       </c>
       <c r="Q91">
-        <v>0.00041210034761773612</v>
+        <v>0.0031350306339726765</v>
       </c>
       <c r="R91">
-        <v>0.0071553296908822579</v>
+        <v>0.14191016066936799</v>
       </c>
       <c r="S91">
-        <v>6.5997660637991575e-07</v>
+        <v>2.5162101931427024e-05</v>
       </c>
       <c r="T91">
-        <v>0.043525447688816846</v>
+        <v>0.0002979780401588803</v>
       </c>
       <c r="U91">
-        <v>2.4749247527300187e-05</v>
+        <v>0.0010416959171153225</v>
       </c>
       <c r="V91">
-        <v>5.0809403409537465e-05</v>
+        <v>0.0016348743832636488</v>
       </c>
       <c r="W91">
-        <v>0.00010318706185815002</v>
+        <v>0.0029327433161676422</v>
       </c>
       <c r="X91">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92">
@@ -7237,70 +7240,70 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>1.0643118993819387e-05</v>
+        <v>1.3780311340125525e-05</v>
       </c>
       <c r="C92">
-        <v>0.00094633466267841589</v>
+        <v>0.00059309588507452666</v>
       </c>
       <c r="D92">
-        <v>6.069704346885981e-05</v>
+        <v>0.00047253923206426387</v>
       </c>
       <c r="E92">
-        <v>7.9043238196019986e-07</v>
+        <v>6.0762333301673118e-12</v>
       </c>
       <c r="F92">
-        <v>0.42212304315192178</v>
+        <v>0.67113358149133495</v>
       </c>
       <c r="G92">
-        <v>0.0017313002799458704</v>
+        <v>0.00040440909839599578</v>
       </c>
       <c r="H92">
-        <v>0.024313424182465897</v>
+        <v>0.0050287015601544922</v>
       </c>
       <c r="I92">
-        <v>0.00012289560697538186</v>
+        <v>5.0343736572728811e-05</v>
       </c>
       <c r="J92">
-        <v>0.032955718632615386</v>
+        <v>0.082324578001304743</v>
       </c>
       <c r="K92">
-        <v>0.028503130485707909</v>
+        <v>0.0038282467392154068</v>
       </c>
       <c r="L92">
-        <v>0.10218485995141348</v>
+        <v>0.040771514614742231</v>
       </c>
       <c r="M92">
-        <v>0.028599085441709422</v>
+        <v>0.038222355965496405</v>
       </c>
       <c r="N92">
-        <v>1.6960051245071019e-05</v>
+        <v>2.7028233214004321e-05</v>
       </c>
       <c r="O92">
-        <v>0.23219005284665914</v>
+        <v>0.084755843615497692</v>
       </c>
       <c r="P92">
-        <v>0.0057417229021883434</v>
+        <v>0.021101698092797858</v>
       </c>
       <c r="Q92">
-        <v>0.00085269451517997624</v>
+        <v>0.00041210034761773612</v>
       </c>
       <c r="R92">
-        <v>0.015288066583844318</v>
+        <v>0.0071553296908822579</v>
       </c>
       <c r="S92">
-        <v>1.1065941416218017e-06</v>
+        <v>6.5997660637991575e-07</v>
       </c>
       <c r="T92">
-        <v>0.098563518883566473</v>
+        <v>0.043525447688816846</v>
       </c>
       <c r="U92">
-        <v>1.1737199294697405e-05</v>
+        <v>2.4749247527300187e-05</v>
       </c>
       <c r="V92">
-        <v>3.2383858198092572e-05</v>
+        <v>5.0809403409537465e-05</v>
       </c>
       <c r="W92">
-        <v>0.0057498335754041906</v>
+        <v>0.00010318706185815002</v>
       </c>
       <c r="X92">
         <v>5</v>
@@ -7311,70 +7314,70 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>1.8649168950229153e-05</v>
+        <v>1.0643118993819387e-05</v>
       </c>
       <c r="C93">
-        <v>0.0011683604687026806</v>
+        <v>0.00094633466267841589</v>
       </c>
       <c r="D93">
-        <v>4.0044624659886627e-05</v>
+        <v>6.069704346885981e-05</v>
       </c>
       <c r="E93">
-        <v>1.3812063662002538e-09</v>
+        <v>7.9043238196019986e-07</v>
       </c>
       <c r="F93">
-        <v>0.51907279502241632</v>
+        <v>0.42212304315192178</v>
       </c>
       <c r="G93">
-        <v>0.00016297532384251367</v>
+        <v>0.0017313002799458704</v>
       </c>
       <c r="H93">
-        <v>0.018732073634411164</v>
+        <v>0.024313424182465897</v>
       </c>
       <c r="I93">
-        <v>2.7785503726431988e-05</v>
+        <v>0.00012289560697538186</v>
       </c>
       <c r="J93">
-        <v>0.042786632383486095</v>
+        <v>0.032955718632615386</v>
       </c>
       <c r="K93">
-        <v>0.024136933308250549</v>
+        <v>0.028503130485707909</v>
       </c>
       <c r="L93">
-        <v>0.01753509367286283</v>
+        <v>0.10218485995141348</v>
       </c>
       <c r="M93">
-        <v>0.010888061100498695</v>
+        <v>0.028599085441709422</v>
       </c>
       <c r="N93">
-        <v>1.2353782646768472e-05</v>
+        <v>1.6960051245071019e-05</v>
       </c>
       <c r="O93">
-        <v>0.21175298453032135</v>
+        <v>0.23219005284665914</v>
       </c>
       <c r="P93">
-        <v>0.022279827339826086</v>
+        <v>0.0057417229021883434</v>
       </c>
       <c r="Q93">
-        <v>0.0013922649883343905</v>
+        <v>0.00085269451517997624</v>
       </c>
       <c r="R93">
-        <v>0.001765821789914024</v>
+        <v>0.015288066583844318</v>
       </c>
       <c r="S93">
-        <v>1.6812593074108734e-06</v>
+        <v>1.1065941416218017e-06</v>
       </c>
       <c r="T93">
-        <v>0.12734431793056844</v>
+        <v>0.098563518883566473</v>
       </c>
       <c r="U93">
-        <v>5.2217611998083428e-05</v>
+        <v>1.1737199294697405e-05</v>
       </c>
       <c r="V93">
-        <v>1.912475481703054e-05</v>
+        <v>3.2383858198092572e-05</v>
       </c>
       <c r="W93">
-        <v>0.00081000041925259744</v>
+        <v>0.0057498335754041906</v>
       </c>
       <c r="X93">
         <v>5</v>
@@ -7385,73 +7388,73 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>9.5882522336378151e-12</v>
+        <v>1.8649168950229153e-05</v>
       </c>
       <c r="C94">
-        <v>1.3791641295892436e-05</v>
+        <v>0.0011683604687026806</v>
       </c>
       <c r="D94">
-        <v>0.98478424188716174</v>
+        <v>4.0044624659886627e-05</v>
       </c>
       <c r="E94">
-        <v>1.6304262064385796e-13</v>
+        <v>1.3812063662002538e-09</v>
       </c>
       <c r="F94">
-        <v>0.00052709309448229218</v>
+        <v>0.51907279502241632</v>
       </c>
       <c r="G94">
-        <v>1.7119680633328384e-06</v>
+        <v>0.00016297532384251367</v>
       </c>
       <c r="H94">
-        <v>0.00286388046288958</v>
+        <v>0.018732073634411164</v>
       </c>
       <c r="I94">
-        <v>7.431055993933341e-05</v>
+        <v>2.7785503726431988e-05</v>
       </c>
       <c r="J94">
-        <v>6.3044051618371539e-05</v>
+        <v>0.042786632383486095</v>
       </c>
       <c r="K94">
-        <v>1.474711162009867e-05</v>
+        <v>0.024136933308250549</v>
       </c>
       <c r="L94">
-        <v>0.0037214827517362422</v>
+        <v>0.01753509367286283</v>
       </c>
       <c r="M94">
-        <v>0.00045906749529172849</v>
+        <v>0.010888061100498695</v>
       </c>
       <c r="N94">
-        <v>0.0023058464459959366</v>
+        <v>1.2353782646768472e-05</v>
       </c>
       <c r="O94">
-        <v>5.9897951836391192e-05</v>
+        <v>0.21175298453032135</v>
       </c>
       <c r="P94">
-        <v>3.3573497062815081e-05</v>
+        <v>0.022279827339826086</v>
       </c>
       <c r="Q94">
-        <v>5.1265731176954968e-07</v>
+        <v>0.0013922649883343905</v>
       </c>
       <c r="R94">
-        <v>0.00054767826444577377</v>
+        <v>0.001765821789914024</v>
       </c>
       <c r="S94">
-        <v>5.3303438473314042e-08</v>
+        <v>1.6812593074108734e-06</v>
       </c>
       <c r="T94">
-        <v>0.004525135433850554</v>
+        <v>0.12734431793056844</v>
       </c>
       <c r="U94">
-        <v>1.5792481435513976e-06</v>
+        <v>5.2217611998083428e-05</v>
       </c>
       <c r="V94">
-        <v>2.6117047073709804e-07</v>
+        <v>1.912475481703054e-05</v>
       </c>
       <c r="W94">
-        <v>2.0909935940423362e-06</v>
+        <v>0.00081000041925259744</v>
       </c>
       <c r="X94">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95">
@@ -7459,73 +7462,73 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>8.1388570501718689e-06</v>
+        <v>9.5882522336378151e-12</v>
       </c>
       <c r="C95">
-        <v>0.00015222188138166174</v>
+        <v>1.3791641295892436e-05</v>
       </c>
       <c r="D95">
-        <v>0.00062718608065095755</v>
+        <v>0.98478424188716174</v>
       </c>
       <c r="E95">
-        <v>1.1038347595636772e-08</v>
+        <v>1.6304262064385796e-13</v>
       </c>
       <c r="F95">
-        <v>0.54120489057650634</v>
+        <v>0.00052709309448229218</v>
       </c>
       <c r="G95">
-        <v>0.0058988990230023405</v>
+        <v>1.7119680633328384e-06</v>
       </c>
       <c r="H95">
-        <v>0.011038496902457517</v>
+        <v>0.00286388046288958</v>
       </c>
       <c r="I95">
-        <v>0.00010670945871548978</v>
+        <v>7.431055993933341e-05</v>
       </c>
       <c r="J95">
-        <v>0.058327376758022353</v>
+        <v>6.3044051618371539e-05</v>
       </c>
       <c r="K95">
-        <v>0.0011026972409336204</v>
+        <v>1.474711162009867e-05</v>
       </c>
       <c r="L95">
-        <v>0.081185891236443375</v>
+        <v>0.0037214827517362422</v>
       </c>
       <c r="M95">
-        <v>0.018762878043604148</v>
+        <v>0.00045906749529172849</v>
       </c>
       <c r="N95">
-        <v>4.3224014821312707e-05</v>
+        <v>0.0023058464459959366</v>
       </c>
       <c r="O95">
-        <v>0.063986858006267286</v>
+        <v>5.9897951836391192e-05</v>
       </c>
       <c r="P95">
-        <v>0.07418791127581241</v>
+        <v>3.3573497062815081e-05</v>
       </c>
       <c r="Q95">
-        <v>0.0003817093582130645</v>
+        <v>5.1265731176954968e-07</v>
       </c>
       <c r="R95">
-        <v>0.029314864919656358</v>
+        <v>0.00054767826444577377</v>
       </c>
       <c r="S95">
-        <v>1.8242656816826806e-06</v>
+        <v>5.3303438473314042e-08</v>
       </c>
       <c r="T95">
-        <v>0.1133007974596786</v>
+        <v>0.004525135433850554</v>
       </c>
       <c r="U95">
-        <v>3.167206654843786e-05</v>
+        <v>1.5792481435513976e-06</v>
       </c>
       <c r="V95">
-        <v>4.8513674772348153e-05</v>
+        <v>2.6117047073709804e-07</v>
       </c>
       <c r="W95">
-        <v>0.00028722786143305508</v>
+        <v>2.0909935940423362e-06</v>
       </c>
       <c r="X95">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96">
@@ -7533,70 +7536,70 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>4.0551016392165218e-05</v>
+        <v>8.1388570501718689e-06</v>
       </c>
       <c r="C96">
-        <v>0.00082740071920260031</v>
+        <v>0.00015222188138166174</v>
       </c>
       <c r="D96">
-        <v>0.00010057838152962597</v>
+        <v>0.00062718608065095755</v>
       </c>
       <c r="E96">
-        <v>3.2459462263204048e-09</v>
+        <v>1.1038347595636772e-08</v>
       </c>
       <c r="F96">
-        <v>0.57288077387073388</v>
+        <v>0.54120489057650634</v>
       </c>
       <c r="G96">
-        <v>0.0019949706250464382</v>
+        <v>0.0058988990230023405</v>
       </c>
       <c r="H96">
-        <v>0.011508741228727184</v>
+        <v>0.011038496902457517</v>
       </c>
       <c r="I96">
-        <v>5.0275793468598147e-05</v>
+        <v>0.00010670945871548978</v>
       </c>
       <c r="J96">
-        <v>0.071240578268250795</v>
+        <v>0.058327376758022353</v>
       </c>
       <c r="K96">
-        <v>0.0056754316390537239</v>
+        <v>0.0011026972409336204</v>
       </c>
       <c r="L96">
-        <v>0.040474875062499908</v>
+        <v>0.081185891236443375</v>
       </c>
       <c r="M96">
-        <v>0.021131024614448178</v>
+        <v>0.018762878043604148</v>
       </c>
       <c r="N96">
-        <v>0.00012353359819512871</v>
+        <v>4.3224014821312707e-05</v>
       </c>
       <c r="O96">
-        <v>0.18269904782358598</v>
+        <v>0.063986858006267286</v>
       </c>
       <c r="P96">
-        <v>0.039800591565315797</v>
+        <v>0.07418791127581241</v>
       </c>
       <c r="Q96">
-        <v>0.0020535653564895638</v>
+        <v>0.0003817093582130645</v>
       </c>
       <c r="R96">
-        <v>0.020600698050278591</v>
+        <v>0.029314864919656358</v>
       </c>
       <c r="S96">
-        <v>4.3091125618701904e-07</v>
+        <v>1.8242656816826806e-06</v>
       </c>
       <c r="T96">
-        <v>0.02729837222718642</v>
+        <v>0.1133007974596786</v>
       </c>
       <c r="U96">
-        <v>1.7113657162473565e-05</v>
+        <v>3.167206654843786e-05</v>
       </c>
       <c r="V96">
-        <v>5.8181838465129322e-05</v>
+        <v>4.8513674772348153e-05</v>
       </c>
       <c r="W96">
-        <v>0.0014232605067652263</v>
+        <v>0.00028722786143305508</v>
       </c>
       <c r="X96">
         <v>5</v>
@@ -7607,70 +7610,70 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>1.3879021936906724e-05</v>
+        <v>4.0551016392165218e-05</v>
       </c>
       <c r="C97">
-        <v>0.000427008353365878</v>
+        <v>0.00082740071920260031</v>
       </c>
       <c r="D97">
-        <v>0.00011125275863592709</v>
+        <v>0.00010057838152962597</v>
       </c>
       <c r="E97">
-        <v>9.7827390391159116e-07</v>
+        <v>3.2459462263204048e-09</v>
       </c>
       <c r="F97">
-        <v>0.58910898626273045</v>
+        <v>0.57288077387073388</v>
       </c>
       <c r="G97">
-        <v>0.013395456812258689</v>
+        <v>0.0019949706250464382</v>
       </c>
       <c r="H97">
-        <v>0.024493376135302163</v>
+        <v>0.011508741228727184</v>
       </c>
       <c r="I97">
-        <v>0.00016326996997696147</v>
+        <v>5.0275793468598147e-05</v>
       </c>
       <c r="J97">
-        <v>0.030043071693732569</v>
+        <v>0.071240578268250795</v>
       </c>
       <c r="K97">
-        <v>0.0010646035529937106</v>
+        <v>0.0056754316390537239</v>
       </c>
       <c r="L97">
-        <v>0.064354970343854123</v>
+        <v>0.040474875062499908</v>
       </c>
       <c r="M97">
-        <v>0.027630860496559384</v>
+        <v>0.021131024614448178</v>
       </c>
       <c r="N97">
-        <v>6.6630020822692587e-05</v>
+        <v>0.00012353359819512871</v>
       </c>
       <c r="O97">
-        <v>0.17225693212961465</v>
+        <v>0.18269904782358598</v>
       </c>
       <c r="P97">
-        <v>0.01258463150819253</v>
+        <v>0.039800591565315797</v>
       </c>
       <c r="Q97">
-        <v>0.00018205804482701905</v>
+        <v>0.0020535653564895638</v>
       </c>
       <c r="R97">
-        <v>0.051275197705429439</v>
+        <v>0.020600698050278591</v>
       </c>
       <c r="S97">
-        <v>2.236571291946083e-07</v>
+        <v>4.3091125618701904e-07</v>
       </c>
       <c r="T97">
-        <v>0.010611423379063387</v>
+        <v>0.02729837222718642</v>
       </c>
       <c r="U97">
-        <v>5.6122011991961102e-06</v>
+        <v>1.7113657162473565e-05</v>
       </c>
       <c r="V97">
-        <v>2.7120044600900075e-05</v>
+        <v>5.8181838465129322e-05</v>
       </c>
       <c r="W97">
-        <v>0.0021824576338702732</v>
+        <v>0.0014232605067652263</v>
       </c>
       <c r="X97">
         <v>5</v>
@@ -7681,70 +7684,70 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>0.00013418102299752471</v>
+        <v>1.3879021936906724e-05</v>
       </c>
       <c r="C98">
-        <v>0.00057438392796850687</v>
+        <v>0.000427008353365878</v>
       </c>
       <c r="D98">
-        <v>0.00017072998365379703</v>
+        <v>0.00011125275863592709</v>
       </c>
       <c r="E98">
-        <v>7.7920840275832433e-07</v>
+        <v>9.7827390391159116e-07</v>
       </c>
       <c r="F98">
-        <v>0.66400759194350578</v>
+        <v>0.58910898626273045</v>
       </c>
       <c r="G98">
-        <v>0.017674797175197567</v>
+        <v>0.013395456812258689</v>
       </c>
       <c r="H98">
-        <v>0.0037445498923031435</v>
+        <v>0.024493376135302163</v>
       </c>
       <c r="I98">
-        <v>3.3356104609443358e-05</v>
+        <v>0.00016326996997696147</v>
       </c>
       <c r="J98">
-        <v>0.035999224613318552</v>
+        <v>0.030043071693732569</v>
       </c>
       <c r="K98">
-        <v>0.0090552421039366091</v>
+        <v>0.0010646035529937106</v>
       </c>
       <c r="L98">
-        <v>0.075256683465057789</v>
+        <v>0.064354970343854123</v>
       </c>
       <c r="M98">
-        <v>0.027390486941416114</v>
+        <v>0.027630860496559384</v>
       </c>
       <c r="N98">
-        <v>0.00029485934430803387</v>
+        <v>6.6630020822692587e-05</v>
       </c>
       <c r="O98">
-        <v>0.11106689520250977</v>
+        <v>0.17225693212961465</v>
       </c>
       <c r="P98">
-        <v>0.022381997312332005</v>
+        <v>0.01258463150819253</v>
       </c>
       <c r="Q98">
-        <v>0.0016530728084898237</v>
+        <v>0.00018205804482701905</v>
       </c>
       <c r="R98">
-        <v>0.010165758265312224</v>
+        <v>0.051275197705429439</v>
       </c>
       <c r="S98">
-        <v>6.0371772525582742e-07</v>
+        <v>2.236571291946083e-07</v>
       </c>
       <c r="T98">
-        <v>0.017551987467169728</v>
+        <v>0.010611423379063387</v>
       </c>
       <c r="U98">
-        <v>3.8185619477635795e-05</v>
+        <v>5.6122011991961102e-06</v>
       </c>
       <c r="V98">
-        <v>0.00017199629856469965</v>
+        <v>2.7120044600900075e-05</v>
       </c>
       <c r="W98">
-        <v>0.0026326375817435715</v>
+        <v>0.0021824576338702732</v>
       </c>
       <c r="X98">
         <v>5</v>
@@ -7755,73 +7758,73 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>0.00016648905972924938</v>
+        <v>0.00013418102299752471</v>
       </c>
       <c r="C99">
-        <v>5.6173105351981305e-07</v>
+        <v>0.00057438392796850687</v>
       </c>
       <c r="D99">
-        <v>2.8259817466777418e-06</v>
+        <v>0.00017072998365379703</v>
       </c>
       <c r="E99">
-        <v>0.97294622646015361</v>
+        <v>7.7920840275832433e-07</v>
       </c>
       <c r="F99">
-        <v>9.5971676532954041e-05</v>
+        <v>0.66400759194350578</v>
       </c>
       <c r="G99">
-        <v>0.00052360356948034643</v>
+        <v>0.017674797175197567</v>
       </c>
       <c r="H99">
-        <v>0.0004476287662358443</v>
+        <v>0.0037445498923031435</v>
       </c>
       <c r="I99">
-        <v>0.00018527889600096113</v>
+        <v>3.3356104609443358e-05</v>
       </c>
       <c r="J99">
-        <v>0.00037687636915293609</v>
+        <v>0.035999224613318552</v>
       </c>
       <c r="K99">
-        <v>0.00021766245263518509</v>
+        <v>0.0090552421039366091</v>
       </c>
       <c r="L99">
-        <v>0.018883709419284245</v>
+        <v>0.075256683465057789</v>
       </c>
       <c r="M99">
-        <v>0.00049140181118642395</v>
+        <v>0.027390486941416114</v>
       </c>
       <c r="N99">
-        <v>5.5969529509393661e-05</v>
+        <v>0.00029485934430803387</v>
       </c>
       <c r="O99">
-        <v>0.0010012589172629465</v>
+        <v>0.11106689520250977</v>
       </c>
       <c r="P99">
-        <v>0.0015115511232733515</v>
+        <v>0.022381997312332005</v>
       </c>
       <c r="Q99">
-        <v>7.695885272562918e-06</v>
+        <v>0.0016530728084898237</v>
       </c>
       <c r="R99">
-        <v>0.00065710696084312823</v>
+        <v>0.010165758265312224</v>
       </c>
       <c r="S99">
-        <v>1.5722305204043682e-05</v>
+        <v>6.0371772525582742e-07</v>
       </c>
       <c r="T99">
-        <v>2.6996996645847774e-06</v>
+        <v>0.017551987467169728</v>
       </c>
       <c r="U99">
-        <v>2.6645996357217241e-06</v>
+        <v>3.8185619477635795e-05</v>
       </c>
       <c r="V99">
-        <v>4.0631025087342652e-06</v>
+        <v>0.00017199629856469965</v>
       </c>
       <c r="W99">
-        <v>0.002403031683633428</v>
+        <v>0.0026326375817435715</v>
       </c>
       <c r="X99">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100">
@@ -7829,73 +7832,73 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>1.1281255636272178e-05</v>
+        <v>0.00016648905972924938</v>
       </c>
       <c r="C100">
-        <v>0.00024049214962564209</v>
+        <v>5.6173105351981305e-07</v>
       </c>
       <c r="D100">
-        <v>0.00050193802013314402</v>
+        <v>2.8259817466777418e-06</v>
       </c>
       <c r="E100">
-        <v>1.0878011350482873e-10</v>
+        <v>0.97294622646015361</v>
       </c>
       <c r="F100">
-        <v>0.63726185396176238</v>
+        <v>9.5971676532954041e-05</v>
       </c>
       <c r="G100">
-        <v>0.00052581605518370821</v>
+        <v>0.00052360356948034643</v>
       </c>
       <c r="H100">
-        <v>0.0052013381396939611</v>
+        <v>0.0004476287662358443</v>
       </c>
       <c r="I100">
-        <v>7.2583439772198359e-05</v>
+        <v>0.00018527889600096113</v>
       </c>
       <c r="J100">
-        <v>0.083095905611688697</v>
+        <v>0.00037687636915293609</v>
       </c>
       <c r="K100">
-        <v>0.0018815968710484963</v>
+        <v>0.00021766245263518509</v>
       </c>
       <c r="L100">
-        <v>0.014242138157398764</v>
+        <v>0.018883709419284245</v>
       </c>
       <c r="M100">
-        <v>0.014190855147373381</v>
+        <v>0.00049140181118642395</v>
       </c>
       <c r="N100">
-        <v>5.4619600407783685e-05</v>
+        <v>5.5969529509393661e-05</v>
       </c>
       <c r="O100">
-        <v>0.19951452493949062</v>
+        <v>0.0010012589172629465</v>
       </c>
       <c r="P100">
-        <v>0.011775405453713412</v>
+        <v>0.0015115511232733515</v>
       </c>
       <c r="Q100">
-        <v>0.0021681976134809993</v>
+        <v>7.695885272562918e-06</v>
       </c>
       <c r="R100">
-        <v>0.012962992789159473</v>
+        <v>0.00065710696084312823</v>
       </c>
       <c r="S100">
-        <v>3.7190895948459849e-07</v>
+        <v>1.5722305204043682e-05</v>
       </c>
       <c r="T100">
-        <v>0.016052357675141588</v>
+        <v>2.6996996645847774e-06</v>
       </c>
       <c r="U100">
-        <v>6.1837795212326622e-05</v>
+        <v>2.6645996357217241e-06</v>
       </c>
       <c r="V100">
-        <v>4.5379084201766518e-05</v>
+        <v>4.0631025087342652e-06</v>
       </c>
       <c r="W100">
-        <v>0.00013851422213599168</v>
+        <v>0.002403031683633428</v>
       </c>
       <c r="X100">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101">
@@ -7903,73 +7906,73 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>1.9282946662683972e-05</v>
+        <v>1.1281255636272178e-05</v>
       </c>
       <c r="C101">
-        <v>0.00010776752960588756</v>
+        <v>0.00024049214962564209</v>
       </c>
       <c r="D101">
-        <v>4.6574962799000611e-06</v>
+        <v>0.00050193802013314402</v>
       </c>
       <c r="E101">
-        <v>0.85736558574564503</v>
+        <v>1.0878011350482873e-10</v>
       </c>
       <c r="F101">
-        <v>0.075327615643997481</v>
+        <v>0.63726185396176238</v>
       </c>
       <c r="G101">
-        <v>0.00049486955537545395</v>
+        <v>0.00052581605518370821</v>
       </c>
       <c r="H101">
-        <v>0.0008089311550412956</v>
+        <v>0.0052013381396939611</v>
       </c>
       <c r="I101">
-        <v>2.4574514388307599e-05</v>
+        <v>7.2583439772198359e-05</v>
       </c>
       <c r="J101">
-        <v>0.0010178119847979832</v>
+        <v>0.083095905611688697</v>
       </c>
       <c r="K101">
-        <v>0.0010749020215407329</v>
+        <v>0.0018815968710484963</v>
       </c>
       <c r="L101">
-        <v>0.03093240166743454</v>
+        <v>0.014242138157398764</v>
       </c>
       <c r="M101">
-        <v>0.0079818219725403868</v>
+        <v>0.014190855147373381</v>
       </c>
       <c r="N101">
-        <v>3.5614032382682075e-05</v>
+        <v>5.4619600407783685e-05</v>
       </c>
       <c r="O101">
-        <v>0.017028673758644898</v>
+        <v>0.19951452493949062</v>
       </c>
       <c r="P101">
-        <v>0.0037374251233617943</v>
+        <v>0.011775405453713412</v>
       </c>
       <c r="Q101">
-        <v>1.1955686498216238e-05</v>
+        <v>0.0021681976134809993</v>
       </c>
       <c r="R101">
-        <v>1.2791747033365297e-05</v>
+        <v>0.012962992789159473</v>
       </c>
       <c r="S101">
-        <v>7.6817898774733348e-07</v>
+        <v>3.7190895948459849e-07</v>
       </c>
       <c r="T101">
-        <v>0.00075134576811135875</v>
+        <v>0.016052357675141588</v>
       </c>
       <c r="U101">
-        <v>7.0720625366321501e-06</v>
+        <v>6.1837795212326622e-05</v>
       </c>
       <c r="V101">
-        <v>1.1850955136431916e-05</v>
+        <v>4.5379084201766518e-05</v>
       </c>
       <c r="W101">
-        <v>0.0032422804539969257</v>
+        <v>0.00013851422213599168</v>
       </c>
       <c r="X101">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102">
@@ -7977,73 +7980,73 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>0.00066271401188032096</v>
+        <v>1.9282946662683972e-05</v>
       </c>
       <c r="C102">
-        <v>0.0021473210839347665</v>
+        <v>0.00010776752960588756</v>
       </c>
       <c r="D102">
-        <v>0.00030336385276757841</v>
+        <v>4.6574962799000611e-06</v>
       </c>
       <c r="E102">
-        <v>3.1863119038378736e-07</v>
+        <v>0.85736558574564503</v>
       </c>
       <c r="F102">
-        <v>0.28075741916648367</v>
+        <v>0.075327615643997481</v>
       </c>
       <c r="G102">
-        <v>0.01515748892294012</v>
+        <v>0.00049486955537545395</v>
       </c>
       <c r="H102">
-        <v>0.024661350050750791</v>
+        <v>0.0008089311550412956</v>
       </c>
       <c r="I102">
-        <v>0.00015586994881297453</v>
+        <v>2.4574514388307599e-05</v>
       </c>
       <c r="J102">
-        <v>0.0656226897810534</v>
+        <v>0.0010178119847979832</v>
       </c>
       <c r="K102">
-        <v>0.060704529000552211</v>
+        <v>0.0010749020215407329</v>
       </c>
       <c r="L102">
-        <v>0.13933934540884158</v>
+        <v>0.03093240166743454</v>
       </c>
       <c r="M102">
-        <v>0.033887968662770183</v>
+        <v>0.0079818219725403868</v>
       </c>
       <c r="N102">
-        <v>0.0011059575383252029</v>
+        <v>3.5614032382682075e-05</v>
       </c>
       <c r="O102">
-        <v>0.1934727923989995</v>
+        <v>0.017028673758644898</v>
       </c>
       <c r="P102">
-        <v>0.054833469925958778</v>
+        <v>0.0037374251233617943</v>
       </c>
       <c r="Q102">
-        <v>0.0060298753086543604</v>
+        <v>1.1955686498216238e-05</v>
       </c>
       <c r="R102">
-        <v>0.028897938319084771</v>
+        <v>1.2791747033365297e-05</v>
       </c>
       <c r="S102">
-        <v>1.3162426410004542e-05</v>
+        <v>7.6817898774733348e-07</v>
       </c>
       <c r="T102">
-        <v>0.079568099321779134</v>
+        <v>0.00075134576811135875</v>
       </c>
       <c r="U102">
-        <v>0.00017548335607794877</v>
+        <v>7.0720625366321501e-06</v>
       </c>
       <c r="V102">
-        <v>0.00049078681846324683</v>
+        <v>1.1850955136431916e-05</v>
       </c>
       <c r="W102">
-        <v>0.012012056064269265</v>
+        <v>0.0032422804539969257</v>
       </c>
       <c r="X102">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103">
@@ -8051,70 +8054,70 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>0.0020052755742790804</v>
+        <v>0.00066271401188032096</v>
       </c>
       <c r="C103">
-        <v>0.002025194454390482</v>
+        <v>0.0021473210839347665</v>
       </c>
       <c r="D103">
-        <v>0.00023038551157405121</v>
+        <v>0.00030336385276757841</v>
       </c>
       <c r="E103">
-        <v>6.8926603097796594e-05</v>
+        <v>3.1863119038378736e-07</v>
       </c>
       <c r="F103">
-        <v>0.32194754312957041</v>
+        <v>0.28075741916648367</v>
       </c>
       <c r="G103">
-        <v>0.024870406881396492</v>
+        <v>0.01515748892294012</v>
       </c>
       <c r="H103">
-        <v>0.041591541690267998</v>
+        <v>0.024661350050750791</v>
       </c>
       <c r="I103">
-        <v>2.1420658709869336e-05</v>
+        <v>0.00015586994881297453</v>
       </c>
       <c r="J103">
-        <v>0.080556989376329338</v>
+        <v>0.0656226897810534</v>
       </c>
       <c r="K103">
-        <v>0.091047284085016458</v>
+        <v>0.060704529000552211</v>
       </c>
       <c r="L103">
-        <v>0.093398332619693755</v>
+        <v>0.13933934540884158</v>
       </c>
       <c r="M103">
-        <v>0.012632882443658122</v>
+        <v>0.033887968662770183</v>
       </c>
       <c r="N103">
-        <v>0.052249273274631455</v>
+        <v>0.0011059575383252029</v>
       </c>
       <c r="O103">
-        <v>0.0039624946503352011</v>
+        <v>0.1934727923989995</v>
       </c>
       <c r="P103">
-        <v>0.20010127036488171</v>
+        <v>0.054833469925958778</v>
       </c>
       <c r="Q103">
-        <v>0.0018402801699010198</v>
+        <v>0.0060298753086543604</v>
       </c>
       <c r="R103">
-        <v>0.0017423410565071459</v>
+        <v>0.028897938319084771</v>
       </c>
       <c r="S103">
-        <v>1.6432773728103263e-05</v>
+        <v>1.3162426410004542e-05</v>
       </c>
       <c r="T103">
-        <v>0.0064716775524816623</v>
+        <v>0.079568099321779134</v>
       </c>
       <c r="U103">
-        <v>0.00017931254647520758</v>
+        <v>0.00017548335607794877</v>
       </c>
       <c r="V103">
-        <v>0.0039149969848850863</v>
+        <v>0.00049078681846324683</v>
       </c>
       <c r="W103">
-        <v>0.059125737598189496</v>
+        <v>0.012012056064269265</v>
       </c>
       <c r="X103">
         <v>5</v>
@@ -8125,73 +8128,73 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>8.5657461217712418e-11</v>
+        <v>0.0020052755742790804</v>
       </c>
       <c r="C104">
-        <v>0.006376277230587442</v>
+        <v>0.002025194454390482</v>
       </c>
       <c r="D104">
-        <v>0.93586748830233235</v>
+        <v>0.00023038551157405121</v>
       </c>
       <c r="E104">
-        <v>1.7689119946851164e-13</v>
+        <v>6.8926603097796594e-05</v>
       </c>
       <c r="F104">
-        <v>0.00078248479229111863</v>
+        <v>0.32194754312957041</v>
       </c>
       <c r="G104">
-        <v>7.8411268543643864e-06</v>
+        <v>0.024870406881396492</v>
       </c>
       <c r="H104">
-        <v>0.0092050533233615159</v>
+        <v>0.041591541690267998</v>
       </c>
       <c r="I104">
-        <v>0.00085724274450510506</v>
+        <v>2.1420658709869336e-05</v>
       </c>
       <c r="J104">
-        <v>0.00020874421314452213</v>
+        <v>0.080556989376329338</v>
       </c>
       <c r="K104">
-        <v>0.00023903034755606332</v>
+        <v>0.091047284085016458</v>
       </c>
       <c r="L104">
-        <v>0.024612928419233553</v>
+        <v>0.093398332619693755</v>
       </c>
       <c r="M104">
-        <v>0.014459928371427977</v>
+        <v>0.012632882443658122</v>
       </c>
       <c r="N104">
-        <v>0.0044735867948250399</v>
+        <v>0.052249273274631455</v>
       </c>
       <c r="O104">
-        <v>0.0013592887645166296</v>
+        <v>0.0039624946503352011</v>
       </c>
       <c r="P104">
-        <v>0.001208067023719242</v>
+        <v>0.20010127036488171</v>
       </c>
       <c r="Q104">
-        <v>1.7865387124533907e-06</v>
+        <v>0.0018402801699010198</v>
       </c>
       <c r="R104">
-        <v>2.7487980610915805e-05</v>
+        <v>0.0017423410565071459</v>
       </c>
       <c r="S104">
-        <v>5.3739944947398147e-07</v>
+        <v>1.6432773728103263e-05</v>
       </c>
       <c r="T104">
-        <v>0.00023131231068203599</v>
+        <v>0.0064716775524816623</v>
       </c>
       <c r="U104">
-        <v>3.2664078404867381e-05</v>
+        <v>0.00017931254647520758</v>
       </c>
       <c r="V104">
-        <v>6.1679413686602414e-07</v>
+        <v>0.0039149969848850863</v>
       </c>
       <c r="W104">
-        <v>4.7633357814048176e-05</v>
+        <v>0.059125737598189496</v>
       </c>
       <c r="X104">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105">
@@ -8199,73 +8202,73 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>6.926402550324526e-05</v>
+        <v>8.5657461217712418e-11</v>
       </c>
       <c r="C105">
-        <v>0.00010729064057181334</v>
+        <v>0.006376277230587442</v>
       </c>
       <c r="D105">
-        <v>2.4921457482125792e-06</v>
+        <v>0.93586748830233235</v>
       </c>
       <c r="E105">
-        <v>0.94102079129551319</v>
+        <v>1.7689119946851164e-13</v>
       </c>
       <c r="F105">
-        <v>0.0039051399218873011</v>
+        <v>0.00078248479229111863</v>
       </c>
       <c r="G105">
-        <v>0.003115848258069528</v>
+        <v>7.8411268543643864e-06</v>
       </c>
       <c r="H105">
-        <v>0.00014249267187166245</v>
+        <v>0.0092050533233615159</v>
       </c>
       <c r="I105">
-        <v>1.3096946708836284e-05</v>
+        <v>0.00085724274450510506</v>
       </c>
       <c r="J105">
-        <v>0.00052712236730602694</v>
+        <v>0.00020874421314452213</v>
       </c>
       <c r="K105">
-        <v>0.020019253376503603</v>
+        <v>0.00023903034755606332</v>
       </c>
       <c r="L105">
-        <v>0.0073325596590702001</v>
+        <v>0.024612928419233553</v>
       </c>
       <c r="M105">
-        <v>0.0092337199708524362</v>
+        <v>0.014459928371427977</v>
       </c>
       <c r="N105">
-        <v>3.6518839520600097e-05</v>
+        <v>0.0044735867948250399</v>
       </c>
       <c r="O105">
-        <v>0.0047271342421188606</v>
+        <v>0.0013592887645166296</v>
       </c>
       <c r="P105">
-        <v>0.00031713129879067602</v>
+        <v>0.001208067023719242</v>
       </c>
       <c r="Q105">
-        <v>1.0742467158636747e-05</v>
+        <v>1.7865387124533907e-06</v>
       </c>
       <c r="R105">
-        <v>5.0074325492150304e-05</v>
+        <v>2.7487980610915805e-05</v>
       </c>
       <c r="S105">
-        <v>6.8697845610830209e-07</v>
+        <v>5.3739944947398147e-07</v>
       </c>
       <c r="T105">
-        <v>0.0029801926958582196</v>
+        <v>0.00023131231068203599</v>
       </c>
       <c r="U105">
-        <v>1.1526917338617631e-05</v>
+        <v>3.2664078404867381e-05</v>
       </c>
       <c r="V105">
-        <v>7.6876024391512699e-06</v>
+        <v>6.1679413686602414e-07</v>
       </c>
       <c r="W105">
-        <v>0.0063692333532213152</v>
+        <v>4.7633357814048176e-05</v>
       </c>
       <c r="X105">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106">
@@ -8273,70 +8276,70 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>8.0076818968640419e-05</v>
+        <v>6.926402550324526e-05</v>
       </c>
       <c r="C106">
-        <v>1.6679553733350985e-05</v>
+        <v>0.00010729064057181334</v>
       </c>
       <c r="D106">
-        <v>3.1686838561648599e-06</v>
+        <v>2.4921457482125792e-06</v>
       </c>
       <c r="E106">
-        <v>0.97893745471699922</v>
+        <v>0.94102079129551319</v>
       </c>
       <c r="F106">
-        <v>0.0021561527932139478</v>
+        <v>0.0039051399218873011</v>
       </c>
       <c r="G106">
-        <v>0.00040402733546201917</v>
+        <v>0.003115848258069528</v>
       </c>
       <c r="H106">
-        <v>0.0011339516414872368</v>
+        <v>0.00014249267187166245</v>
       </c>
       <c r="I106">
-        <v>7.8944733590407382e-05</v>
+        <v>1.3096946708836284e-05</v>
       </c>
       <c r="J106">
-        <v>0.00015441060208226656</v>
+        <v>0.00052712236730602694</v>
       </c>
       <c r="K106">
-        <v>0.00049298906954627043</v>
+        <v>0.020019253376503603</v>
       </c>
       <c r="L106">
-        <v>0.0094181334971324294</v>
+        <v>0.0073325596590702001</v>
       </c>
       <c r="M106">
-        <v>0.0015343070306525026</v>
+        <v>0.0092337199708524362</v>
       </c>
       <c r="N106">
-        <v>9.2922263721026901e-06</v>
+        <v>3.6518839520600097e-05</v>
       </c>
       <c r="O106">
-        <v>0.0037420039219792358</v>
+        <v>0.0047271342421188606</v>
       </c>
       <c r="P106">
-        <v>0.00052815992791066329</v>
+        <v>0.00031713129879067602</v>
       </c>
       <c r="Q106">
-        <v>6.8217307783021442e-06</v>
+        <v>1.0742467158636747e-05</v>
       </c>
       <c r="R106">
-        <v>0.00018598985284904411</v>
+        <v>5.0074325492150304e-05</v>
       </c>
       <c r="S106">
-        <v>4.9903966756181981e-06</v>
+        <v>6.8697845610830209e-07</v>
       </c>
       <c r="T106">
-        <v>0.00042088239197591323</v>
+        <v>0.0029801926958582196</v>
       </c>
       <c r="U106">
-        <v>3.6547997197852293e-06</v>
+        <v>1.1526917338617631e-05</v>
       </c>
       <c r="V106">
-        <v>1.6759975903129643e-06</v>
+        <v>7.6876024391512699e-06</v>
       </c>
       <c r="W106">
-        <v>0.00068623227742436912</v>
+        <v>0.0063692333532213152</v>
       </c>
       <c r="X106">
         <v>4</v>
@@ -8347,73 +8350,73 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>7.4259773210498309e-05</v>
+        <v>8.0076818968640419e-05</v>
       </c>
       <c r="C107">
-        <v>0.0022725447485928587</v>
+        <v>1.6679553733350985e-05</v>
       </c>
       <c r="D107">
-        <v>0.00017361354194912182</v>
+        <v>3.1686838561648599e-06</v>
       </c>
       <c r="E107">
-        <v>1.8430874011146868e-05</v>
+        <v>0.97893745471699922</v>
       </c>
       <c r="F107">
-        <v>0.52315729570027469</v>
+        <v>0.0021561527932139478</v>
       </c>
       <c r="G107">
-        <v>0.0048333910367969564</v>
+        <v>0.00040402733546201917</v>
       </c>
       <c r="H107">
-        <v>0.17241507721559104</v>
+        <v>0.0011339516414872368</v>
       </c>
       <c r="I107">
-        <v>3.6248436778948082e-05</v>
+        <v>7.8944733590407382e-05</v>
       </c>
       <c r="J107">
-        <v>0.035931713373130315</v>
+        <v>0.00015441060208226656</v>
       </c>
       <c r="K107">
-        <v>0.050767084214707062</v>
+        <v>0.00049298906954627043</v>
       </c>
       <c r="L107">
-        <v>0.071836662601741652</v>
+        <v>0.0094181334971324294</v>
       </c>
       <c r="M107">
-        <v>0.0057428047546447163</v>
+        <v>0.0015343070306525026</v>
       </c>
       <c r="N107">
-        <v>0.001220863394732504</v>
+        <v>9.2922263721026901e-06</v>
       </c>
       <c r="O107">
-        <v>0.029135378548835012</v>
+        <v>0.0037420039219792358</v>
       </c>
       <c r="P107">
-        <v>0.067306143512384245</v>
+        <v>0.00052815992791066329</v>
       </c>
       <c r="Q107">
-        <v>0.00089780962738841385</v>
+        <v>6.8217307783021442e-06</v>
       </c>
       <c r="R107">
-        <v>0.004693304118305334</v>
+        <v>0.00018598985284904411</v>
       </c>
       <c r="S107">
-        <v>5.1247223404873366e-06</v>
+        <v>4.9903966756181981e-06</v>
       </c>
       <c r="T107">
-        <v>0.013130527429251857</v>
+        <v>0.00042088239197591323</v>
       </c>
       <c r="U107">
-        <v>2.9853449067130148e-05</v>
+        <v>3.6547997197852293e-06</v>
       </c>
       <c r="V107">
-        <v>0.00041711820960609026</v>
+        <v>1.6759975903129643e-06</v>
       </c>
       <c r="W107">
-        <v>0.015904750716660049</v>
+        <v>0.00068623227742436912</v>
       </c>
       <c r="X107">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108">
@@ -8421,73 +8424,73 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>1.3700734452158058e-08</v>
+        <v>7.4259773210498309e-05</v>
       </c>
       <c r="C108">
-        <v>0.0020096563654205171</v>
+        <v>0.0022725447485928587</v>
       </c>
       <c r="D108">
-        <v>0.027538291555014555</v>
+        <v>0.00017361354194912182</v>
       </c>
       <c r="E108">
-        <v>1.688198506941542e-13</v>
+        <v>1.8430874011146868e-05</v>
       </c>
       <c r="F108">
-        <v>2.1174331460589262e-05</v>
+        <v>0.52315729570027469</v>
       </c>
       <c r="G108">
-        <v>1.6995412008169732e-08</v>
+        <v>0.0048333910367969564</v>
       </c>
       <c r="H108">
-        <v>0.0013023046592302928</v>
+        <v>0.17241507721559104</v>
       </c>
       <c r="I108">
-        <v>8.6916922643226596e-05</v>
+        <v>3.6248436778948082e-05</v>
       </c>
       <c r="J108">
-        <v>0.00036172904570501424</v>
+        <v>0.035931713373130315</v>
       </c>
       <c r="K108">
-        <v>0.0011145302123557995</v>
+        <v>0.050767084214707062</v>
       </c>
       <c r="L108">
-        <v>0.74078528938042087</v>
+        <v>0.071836662601741652</v>
       </c>
       <c r="M108">
-        <v>0.0011480498429114947</v>
+        <v>0.0057428047546447163</v>
       </c>
       <c r="N108">
-        <v>0.044254547722450938</v>
+        <v>0.001220863394732504</v>
       </c>
       <c r="O108">
-        <v>0.012312941643766633</v>
+        <v>0.029135378548835012</v>
       </c>
       <c r="P108">
-        <v>0.0016313191738872876</v>
+        <v>0.067306143512384245</v>
       </c>
       <c r="Q108">
-        <v>0.0063381886364020168</v>
+        <v>0.00089780962738841385</v>
       </c>
       <c r="R108">
-        <v>2.1215443293103508e-05</v>
+        <v>0.004693304118305334</v>
       </c>
       <c r="S108">
-        <v>0.00019561059102752749</v>
+        <v>5.1247223404873366e-06</v>
       </c>
       <c r="T108">
-        <v>0.056368586497208675</v>
+        <v>0.013130527429251857</v>
       </c>
       <c r="U108">
-        <v>0.10389822105075798</v>
+        <v>2.9853449067130148e-05</v>
       </c>
       <c r="V108">
-        <v>9.2263428505272898e-05</v>
+        <v>0.00041711820960609026</v>
       </c>
       <c r="W108">
-        <v>0.00051913280122299046</v>
+        <v>0.015904750716660049</v>
       </c>
       <c r="X108">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109">
@@ -8495,73 +8498,73 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>0.00052839980529079459</v>
+        <v>1.3700734452158058e-08</v>
       </c>
       <c r="C109">
-        <v>0.00032088300239722152</v>
+        <v>0.0020096563654205171</v>
       </c>
       <c r="D109">
-        <v>0.00021432768469074439</v>
+        <v>0.027538291555014555</v>
       </c>
       <c r="E109">
-        <v>1.241249590456071e-08</v>
+        <v>1.688198506941542e-13</v>
       </c>
       <c r="F109">
-        <v>0.26048156016629265</v>
+        <v>2.1174331460589262e-05</v>
       </c>
       <c r="G109">
-        <v>0.052773830709582935</v>
+        <v>1.6995412008169732e-08</v>
       </c>
       <c r="H109">
-        <v>0.013356662947136088</v>
+        <v>0.0013023046592302928</v>
       </c>
       <c r="I109">
-        <v>0.00097582431011776364</v>
+        <v>8.6916922643226596e-05</v>
       </c>
       <c r="J109">
-        <v>0.13870152085459864</v>
+        <v>0.00036172904570501424</v>
       </c>
       <c r="K109">
-        <v>0.0069116031822609109</v>
+        <v>0.0011145302123557995</v>
       </c>
       <c r="L109">
-        <v>0.053085378598873446</v>
+        <v>0.74078528938042087</v>
       </c>
       <c r="M109">
-        <v>0.05717972196248023</v>
+        <v>0.0011480498429114947</v>
       </c>
       <c r="N109">
-        <v>0.00012597070650523833</v>
+        <v>0.044254547722450938</v>
       </c>
       <c r="O109">
-        <v>0.10518092842833404</v>
+        <v>0.012312941643766633</v>
       </c>
       <c r="P109">
-        <v>0.0440629979485554</v>
+        <v>0.0016313191738872876</v>
       </c>
       <c r="Q109">
-        <v>0.00069569319629476337</v>
+        <v>0.0063381886364020168</v>
       </c>
       <c r="R109">
-        <v>0.16524824979425434</v>
+        <v>2.1215443293103508e-05</v>
       </c>
       <c r="S109">
-        <v>2.1794121255920908e-05</v>
+        <v>0.00019561059102752749</v>
       </c>
       <c r="T109">
-        <v>0.098988843863686296</v>
+        <v>0.056368586497208675</v>
       </c>
       <c r="U109">
-        <v>0.00020412394085696597</v>
+        <v>0.10389822105075798</v>
       </c>
       <c r="V109">
-        <v>3.9647297883992675e-05</v>
+        <v>9.2263428505272898e-05</v>
       </c>
       <c r="W109">
-        <v>0.00090202506615557211</v>
+        <v>0.00051913280122299046</v>
       </c>
       <c r="X109">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110">
@@ -8569,73 +8572,73 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>1.6827924048549127e-09</v>
+        <v>0.00052839980529079459</v>
       </c>
       <c r="C110">
-        <v>0.00064604252420582913</v>
+        <v>0.00032088300239722152</v>
       </c>
       <c r="D110">
-        <v>0.0017201477647570264</v>
+        <v>0.00021432768469074439</v>
       </c>
       <c r="E110">
-        <v>3.7817076601558082e-14</v>
+        <v>1.241249590456071e-08</v>
       </c>
       <c r="F110">
-        <v>9.9781545469848379e-05</v>
+        <v>0.26048156016629265</v>
       </c>
       <c r="G110">
-        <v>2.9218779287707907e-08</v>
+        <v>0.052773830709582935</v>
       </c>
       <c r="H110">
-        <v>0.00010589109961403015</v>
+        <v>0.013356662947136088</v>
       </c>
       <c r="I110">
-        <v>7.2175759838792752e-06</v>
+        <v>0.00097582431011776364</v>
       </c>
       <c r="J110">
-        <v>0.00011032289069768677</v>
+        <v>0.13870152085459864</v>
       </c>
       <c r="K110">
-        <v>0.00081219395778787408</v>
+        <v>0.0069116031822609109</v>
       </c>
       <c r="L110">
-        <v>0.94739916863105211</v>
+        <v>0.053085378598873446</v>
       </c>
       <c r="M110">
-        <v>0.0058229708130148484</v>
+        <v>0.05717972196248023</v>
       </c>
       <c r="N110">
-        <v>0.012358989347943886</v>
+        <v>0.00012597070650523833</v>
       </c>
       <c r="O110">
-        <v>0.00021636927371023804</v>
+        <v>0.10518092842833404</v>
       </c>
       <c r="P110">
-        <v>0.019534053187747993</v>
+        <v>0.0440629979485554</v>
       </c>
       <c r="Q110">
-        <v>0.00030406475799106233</v>
+        <v>0.00069569319629476337</v>
       </c>
       <c r="R110">
-        <v>2.4231926849901041e-07</v>
+        <v>0.16524824979425434</v>
       </c>
       <c r="S110">
-        <v>0.00017465760727164336</v>
+        <v>2.1794121255920908e-05</v>
       </c>
       <c r="T110">
-        <v>0.0101236370204047</v>
+        <v>0.098988843863686296</v>
       </c>
       <c r="U110">
-        <v>0.00022685820359653726</v>
+        <v>0.00020412394085696597</v>
       </c>
       <c r="V110">
-        <v>7.8853684364167318e-05</v>
+        <v>3.9647297883992675e-05</v>
       </c>
       <c r="W110">
-        <v>0.00025850689350877427</v>
+        <v>0.00090202506615557211</v>
       </c>
       <c r="X110">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111">
@@ -8643,70 +8646,70 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>1.1424529533737213e-09</v>
+        <v>1.6827924048549127e-09</v>
       </c>
       <c r="C111">
-        <v>0.00058568923553798053</v>
+        <v>0.00064604252420582913</v>
       </c>
       <c r="D111">
-        <v>0.0024127919244264556</v>
+        <v>0.0017201477647570264</v>
       </c>
       <c r="E111">
-        <v>9.5690084911201851e-14</v>
+        <v>3.7817076601558082e-14</v>
       </c>
       <c r="F111">
-        <v>4.9306746559853615e-05</v>
+        <v>9.9781545469848379e-05</v>
       </c>
       <c r="G111">
-        <v>1.5765495612886897e-09</v>
+        <v>2.9218779287707907e-08</v>
       </c>
       <c r="H111">
-        <v>0.0003886344085772094</v>
+        <v>0.00010589109961403015</v>
       </c>
       <c r="I111">
-        <v>1.0959721145696814e-05</v>
+        <v>7.2175759838792752e-06</v>
       </c>
       <c r="J111">
-        <v>0.00015543092354688444</v>
+        <v>0.00011032289069768677</v>
       </c>
       <c r="K111">
-        <v>0.0020207338205601036</v>
+        <v>0.00081219395778787408</v>
       </c>
       <c r="L111">
-        <v>0.89546656419744231</v>
+        <v>0.94739916863105211</v>
       </c>
       <c r="M111">
-        <v>0.0093861721518533441</v>
+        <v>0.0058229708130148484</v>
       </c>
       <c r="N111">
-        <v>0.018147918006837967</v>
+        <v>0.012358989347943886</v>
       </c>
       <c r="O111">
-        <v>0.0017330605938159081</v>
+        <v>0.00021636927371023804</v>
       </c>
       <c r="P111">
-        <v>0.015615292652509903</v>
+        <v>0.019534053187747993</v>
       </c>
       <c r="Q111">
-        <v>0.00026170686144752953</v>
+        <v>0.00030406475799106233</v>
       </c>
       <c r="R111">
-        <v>1.7509192028671587e-06</v>
+        <v>2.4231926849901041e-07</v>
       </c>
       <c r="S111">
-        <v>0.00034255270083585065</v>
+        <v>0.00017465760727164336</v>
       </c>
       <c r="T111">
-        <v>0.051829660468654407</v>
+        <v>0.0101236370204047</v>
       </c>
       <c r="U111">
-        <v>0.00065256026909945816</v>
+        <v>0.00022685820359653726</v>
       </c>
       <c r="V111">
-        <v>0.000135395548928875</v>
+        <v>7.8853684364167318e-05</v>
       </c>
       <c r="W111">
-        <v>0.00080381612991942174</v>
+        <v>0.00025850689350877427</v>
       </c>
       <c r="X111">
         <v>11</v>
@@ -8717,73 +8720,73 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>9.6871444961485706e-11</v>
+        <v>1.1424529533737213e-09</v>
       </c>
       <c r="C112">
-        <v>0.00039929985109404066</v>
+        <v>0.00058568923553798053</v>
       </c>
       <c r="D112">
-        <v>0.96856660340873424</v>
+        <v>0.0024127919244264556</v>
       </c>
       <c r="E112">
-        <v>5.0042170188625066e-13</v>
+        <v>9.5690084911201851e-14</v>
       </c>
       <c r="F112">
-        <v>0.00026872604451148906</v>
+        <v>4.9306746559853615e-05</v>
       </c>
       <c r="G112">
-        <v>4.0254444930305499e-06</v>
+        <v>1.5765495612886897e-09</v>
       </c>
       <c r="H112">
-        <v>0.0035383018041885502</v>
+        <v>0.0003886344085772094</v>
       </c>
       <c r="I112">
-        <v>0.0001881729891797737</v>
+        <v>1.0959721145696814e-05</v>
       </c>
       <c r="J112">
-        <v>0.00011301683134444061</v>
+        <v>0.00015543092354688444</v>
       </c>
       <c r="K112">
-        <v>3.9558061279582879e-05</v>
+        <v>0.0020207338205601036</v>
       </c>
       <c r="L112">
-        <v>0.0089404282404814336</v>
+        <v>0.89546656419744231</v>
       </c>
       <c r="M112">
-        <v>0.0014885123115182079</v>
+        <v>0.0093861721518533441</v>
       </c>
       <c r="N112">
-        <v>0.015122124676289107</v>
+        <v>0.018147918006837967</v>
       </c>
       <c r="O112">
-        <v>0.00033484664823512831</v>
+        <v>0.0017330605938159081</v>
       </c>
       <c r="P112">
-        <v>9.0017714465642697e-05</v>
+        <v>0.015615292652509903</v>
       </c>
       <c r="Q112">
-        <v>3.8661514613117661e-06</v>
+        <v>0.00026170686144752953</v>
       </c>
       <c r="R112">
-        <v>4.5515215800090797e-05</v>
+        <v>1.7509192028671587e-06</v>
       </c>
       <c r="S112">
-        <v>2.0619570346729538e-07</v>
+        <v>0.00034255270083585065</v>
       </c>
       <c r="T112">
-        <v>0.00083722670605764046</v>
+        <v>0.051829660468654407</v>
       </c>
       <c r="U112">
-        <v>1.3444191067542857e-05</v>
+        <v>0.00065256026909945816</v>
       </c>
       <c r="V112">
-        <v>3.6795499901622432e-07</v>
+        <v>0.000135395548928875</v>
       </c>
       <c r="W112">
-        <v>5.7394617245832613e-06</v>
+        <v>0.00080381612991942174</v>
       </c>
       <c r="X112">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113">
@@ -8791,72 +8794,146 @@
         <v>112</v>
       </c>
       <c r="B113">
+        <v>9.6871444961485706e-11</v>
+      </c>
+      <c r="C113">
+        <v>0.00039929985109404066</v>
+      </c>
+      <c r="D113">
+        <v>0.96856660340873424</v>
+      </c>
+      <c r="E113">
+        <v>5.0042170188625066e-13</v>
+      </c>
+      <c r="F113">
+        <v>0.00026872604451148906</v>
+      </c>
+      <c r="G113">
+        <v>4.0254444930305499e-06</v>
+      </c>
+      <c r="H113">
+        <v>0.0035383018041885502</v>
+      </c>
+      <c r="I113">
+        <v>0.0001881729891797737</v>
+      </c>
+      <c r="J113">
+        <v>0.00011301683134444061</v>
+      </c>
+      <c r="K113">
+        <v>3.9558061279582879e-05</v>
+      </c>
+      <c r="L113">
+        <v>0.0089404282404814336</v>
+      </c>
+      <c r="M113">
+        <v>0.0014885123115182079</v>
+      </c>
+      <c r="N113">
+        <v>0.015122124676289107</v>
+      </c>
+      <c r="O113">
+        <v>0.00033484664823512831</v>
+      </c>
+      <c r="P113">
+        <v>9.0017714465642697e-05</v>
+      </c>
+      <c r="Q113">
+        <v>3.8661514613117661e-06</v>
+      </c>
+      <c r="R113">
+        <v>4.5515215800090797e-05</v>
+      </c>
+      <c r="S113">
+        <v>2.0619570346729538e-07</v>
+      </c>
+      <c r="T113">
+        <v>0.00083722670605764046</v>
+      </c>
+      <c r="U113">
+        <v>1.3444191067542857e-05</v>
+      </c>
+      <c r="V113">
+        <v>3.6795499901622432e-07</v>
+      </c>
+      <c r="W113">
+        <v>5.7394617245832613e-06</v>
+      </c>
+      <c r="X113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114">
         <v>0.00018699253821140313</v>
       </c>
-      <c r="C113">
+      <c r="C114">
         <v>0.00012292840628700806</v>
       </c>
-      <c r="D113">
+      <c r="D114">
         <v>0.0015001138542176586</v>
       </c>
-      <c r="E113">
+      <c r="E114">
         <v>1.3479744655294767e-10</v>
       </c>
-      <c r="F113">
+      <c r="F114">
         <v>0.042826303655396879</v>
       </c>
-      <c r="G113">
+      <c r="G114">
         <v>0.0014634094813122994</v>
       </c>
-      <c r="H113">
+      <c r="H114">
         <v>0.0080359337362971867</v>
       </c>
-      <c r="I113">
+      <c r="I114">
         <v>0.00043171924496524373</v>
       </c>
-      <c r="J113">
+      <c r="J114">
         <v>0.17535642236691051</v>
       </c>
-      <c r="K113">
+      <c r="K114">
         <v>0.086208248634535439</v>
       </c>
-      <c r="L113">
+      <c r="L114">
         <v>0.052387502579981766</v>
       </c>
-      <c r="M113">
+      <c r="M114">
         <v>0.036044414209905853</v>
       </c>
-      <c r="N113">
+      <c r="N114">
         <v>0.0025545522998623579</v>
       </c>
-      <c r="O113">
+      <c r="O114">
         <v>0.23135844045312687</v>
       </c>
-      <c r="P113">
+      <c r="P114">
         <v>0.0097462675974226351</v>
       </c>
-      <c r="Q113">
+      <c r="Q114">
         <v>0.0016619644123830064</v>
       </c>
-      <c r="R113">
+      <c r="R114">
         <v>0.054823177020599197</v>
       </c>
-      <c r="S113">
+      <c r="S114">
         <v>7.8322489070398478e-05</v>
       </c>
-      <c r="T113">
+      <c r="T114">
         <v>0.29041897845447051</v>
       </c>
-      <c r="U113">
+      <c r="U114">
         <v>0.0037933302599137239</v>
       </c>
-      <c r="V113">
+      <c r="V114">
         <v>0.0002990497849946001</v>
       </c>
-      <c r="W113">
+      <c r="W114">
         <v>0.00070192838533794275</v>
       </c>
-      <c r="X113">
+      <c r="X114">
         <v>19</v>
       </c>
     </row>
